--- a/Data/Input/BOT2 COO upload test.xlsx
+++ b/Data/Input/BOT2 COO upload test.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bakerhughes.sharepoint.com/sites/TPSSourcingDigital/Shared Documents/COO/BOT/COO BOT2 COO iSP Uploader/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koraara\Documents\UiPath\Ariba Process\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{024BE8BD-42F1-47A3-81F8-38B27774CABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6470" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="test1 " sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'test1 '!$G$1:$G$23</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="191028"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -30,137 +32,386 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Shipment</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>COO</t>
-  </si>
-  <si>
-    <t>FILE</t>
-  </si>
-  <si>
-    <t>BOT CHECK</t>
-  </si>
-  <si>
-    <t>BOT EXPECTED FEEDBACK</t>
-  </si>
-  <si>
-    <t>BOT DETAILS</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>440086501.pdf</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>1; Number Of Record(s) Completed :: 1</t>
-  </si>
-  <si>
-    <t>440086502.pdf</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERROR PO not found </t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>ERROR SKIP LINE</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>LINE MISSING</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <x:si>
+    <x:t>PO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RELEASE NUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PO LINE NUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PO SHIPMENT NUM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FILE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STATUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOT FEEDBACK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIMESTAMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440571546</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> </x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HU|Hungary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13313488_20231009T050659.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test Updated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/21/2023 13:56:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUCCESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">COO Updated + File Uploaded </x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KR|Korea, Republic of</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13325921_20231011T025110.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/21/2023 13:59:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440399382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CN|China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Template Eur1_440547326.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed Test Updated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/21/2023 14:03:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>US|United States</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23000111.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAILURE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Multiple Orders found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Order not found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IN|India</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INV253886.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440407267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT|Italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11649512_20220928T071246.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GB|United Kingdom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COO Updated + File Missing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HU|Hsdfcdfssdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cannot find Country </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korea, Republic of</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wrong COO input format </x:t>
+  </x:si>
+  <x:si>
+    <x:t>257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing key value: Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing key value : Line</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing key value : Shipment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Missing key value : COO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440572238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440571729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440571742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440096816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440sdasda554921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440571932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440572788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440572642</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color indexed="8"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="5">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF92D050"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,215 +710,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>440086501</v>
-      </c>
-      <c r="B2">
-        <v>358</v>
-      </c>
-      <c r="C2">
-        <v>377</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H4" si="0">IF(AND(C2="",E2="BA"),"ERROR SKIP LINE",IF(B2="","LINE MISSING","OK"))</f>
-        <v>OK</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>440086501</v>
-      </c>
-      <c r="B3">
-        <v>358</v>
-      </c>
-      <c r="C3">
-        <v>363</v>
-      </c>
-      <c r="D3">
-        <v>23342</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>OK</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>440086501</v>
-      </c>
-      <c r="B4">
-        <v>358</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>ERROR SKIP LINE</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>440086533</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="str">
-        <f>IF(AND(C5="",E5="BA"),"ERROR SKIP LINE",IF(B5="","LINE MISSING","OK"))</f>
-        <v>LINE MISSING</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>440086533</v>
-      </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="str">
-        <f>IF(AND(C6="",E6="BA"),"ERROR SKIP LINE",IF(B6="","LINE MISSING","OK"))</f>
-        <v>OK</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K018374 Baker Hughes Confidential</oddFooter>
-  </headerFooter>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:P44"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="G2" sqref="G2 G2:I4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="4" width="9.179688" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.542969" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="34.269531" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.179688" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="28.453125" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="14.816406" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="15" width="9.179688" style="0" customWidth="1"/>
+    <x:col min="16" max="16" width="13.542969" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="10" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="10" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="P2" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="P3" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A4" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="P4" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A5" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="P5" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P6" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A7" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="P7" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A8" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="P8" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A9" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="P9" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A10" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="P10" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A11" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P11" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A12" s="12" t="s"/>
+      <x:c r="B12" s="0" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N12" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P12" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A13" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C13" s="13" t="s"/>
+      <x:c r="D13" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N13" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="P13" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A14" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D14" s="13" t="s"/>
+      <x:c r="E14" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="P14" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A15" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E15" s="13" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P15" s="1">
+        <x:v>45233.3736111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A16" s="3" t="n">
+        <x:v>440571546</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A17" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A18" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A19" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A20" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A21" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A22" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A23" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A24" s="9" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B24" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C24" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A25" s="9" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B25" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C25" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A26" s="9" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B26" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C26" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A27" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B27" s="10" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C27" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A28" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B28" s="10" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C28" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A29" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B29" s="10" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C29" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A30" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B30" s="10" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C30" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A31" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B31" s="10" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="C31" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A32" s="9" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B32" s="10" t="n">
+        <x:v>1359</x:v>
+      </x:c>
+      <x:c r="C32" s="10" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A33" s="9" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B33" s="10" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C33" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A34" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B34" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C34" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A35" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B35" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C35" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A36" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B36" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C36" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A37" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B37" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C37" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A38" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B38" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C38" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A39" s="9" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s"/>
+      <x:c r="C39" s="10" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A40" s="9" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s"/>
+      <x:c r="C40" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A41" s="9" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s"/>
+      <x:c r="C41" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A42" s="9" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s"/>
+      <x:c r="C42" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A43" s="9" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s"/>
+      <x:c r="C43" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A44" s="9" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s"/>
+      <x:c r="C44" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="G1:G23"/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter>&amp;C_x000D_&amp;1#&amp;"Poppins"&amp;10&amp;K018374 Baker Hughes Confidential</x:oddFooter>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AutoRFQReport xmlns="dfe50d64-8c44-4f71-8a62-4a041863b4f4" xsi:nil="true"/>
+    <TaxCatchAll xmlns="9ba3abd5-f384-4629-9efb-7a670ac5cf54" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dfe50d64-8c44-4f71-8a62-4a041863b4f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005090D116E05E8C48A2F360AA0BDAF75B" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d96a8c8b1dd5960592c22d6d78cc4bf9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfe50d64-8c44-4f71-8a62-4a041863b4f4" xmlns:ns3="9ba3abd5-f384-4629-9efb-7a670ac5cf54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6da7e3b40960869b3f43d52eb0ab7cf9" ns2:_="" ns3:_="">
     <xsd:import namespace="dfe50d64-8c44-4f71-8a62-4a041863b4f4"/>
@@ -918,35 +2134,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AutoRFQReport xmlns="dfe50d64-8c44-4f71-8a62-4a041863b4f4" xsi:nil="true"/>
-    <TaxCatchAll xmlns="9ba3abd5-f384-4629-9efb-7a670ac5cf54" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dfe50d64-8c44-4f71-8a62-4a041863b4f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7044C8D5-5D0C-45E5-ADF8-7DFEFACD6FF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B2E42DE-E621-45D7-8418-54B1A649A52B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1195CF67-B0AB-48F3-89AF-EF7590994400}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CCFBEC1-1919-48F9-84CF-E26D4003EAE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dfe50d64-8c44-4f71-8a62-4a041863b4f4"/>
+    <ds:schemaRef ds:uri="9ba3abd5-f384-4629-9efb-7a670ac5cf54"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55D668D3-A2FF-4C68-BCE5-1E01940EDD0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E65326D3-F5B2-48D6-95C2-45A81E66B608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dfe50d64-8c44-4f71-8a62-4a041863b4f4"/>
+    <ds:schemaRef ds:uri="9ba3abd5-f384-4629-9efb-7a670ac5cf54"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>